--- a/test12345.xlsx
+++ b/test12345.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manoj.TRANSITUSNEXGEN.000\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13F23B67-E9C8-4C00-A562-CAC68E589491}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AB56C8B-073E-4FC0-91C1-986947FCE851}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="29">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -479,8 +479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -568,6 +568,9 @@
       <c r="H3" t="s">
         <v>20</v>
       </c>
+      <c r="I3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="E4" t="s">
@@ -582,6 +585,9 @@
       <c r="H4" t="s">
         <v>24</v>
       </c>
+      <c r="I4" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="F5" t="s">
@@ -592,6 +598,9 @@
       </c>
       <c r="H5" t="s">
         <v>27</v>
+      </c>
+      <c r="I5" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
